--- a/admin_test.xlsx
+++ b/admin_test.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -156,6 +154,276 @@
             <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
             <a:t>- </a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>제목 검색을 통해 게시물 검색이 게능하다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- bbsComplete=1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>이면 모임현황이 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>완료</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>', 0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>이면 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>진행중</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>', 2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>이면 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>신청마감</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>이 뜬다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>참가자 조회 버튼을 누르면 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>admin_joinList</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>로 이동</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>모임현황이 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>완료</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>인 게시물에 한해서 결과 조회 버튼이 생성됨</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>이 버튼을 누르면 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>result_view</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>페이지로 이동</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>단 해당 모임에 대한 결과가 존재하지 않을 경우 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>결과가 존재하지 않습니다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>출력 후 결과 작성 페이지로 이동</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>체크박스 선택 후 참가신청 마감 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>참가신청 열기를 누르면 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>신청마감</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>' </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>또는 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>진행중</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>으로 모임현황이 변경됨</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>단</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>모임 날짜가 지난 경우 항상 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>완료</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>상태로 뜸</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>페이징</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -170,6 +438,222 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>참가자와 신청자로 참가자 리스트 검색 가능</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>참가자 명단의 파란글씨 누르면 해당 참가정보 상세히 볼 수 있음</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>(joinDtl)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>조확인 버튼을 누르면 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>league_view</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>페이지로 이동하여 생성된 리그전 표를 볼 수 있음</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>단</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>조가 생성되지 않았다면 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>생성된 조가 없다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>는 의미의 문구 출력</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>조편성 버튼을 누르면 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>moneyCheck=1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>인 참가자들을 대상으로 리그전표가 돌려짐</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>단</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>한 조 당 몇 팀씩 배정할 것인지 정해야함</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>.(league &gt; leagueAction)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>체크박스 누른 후</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>입금완료 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>입금대기 버튼을 누르면 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>moneyCheck = 1 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>또는 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>이 됨</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>(admin_joinPaidAction)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>참가신청 버튼 누르면 사용자 페이지의 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>join_wrtie</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>페이지로 이동</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>페이징</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
         </a:p>
         <a:p>
@@ -181,47 +665,106 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>4. admin_joinPaidAction</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>5. admin_joinCompleteAction</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>6. league, leagueAction</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>7. league_view</a:t>
-          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>참가자 명단을 상세히 볼 수 있음</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>하단에는 삭제 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>수정 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>목록 버튼이 존재</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>목록 버튼 누르면 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>joinList</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>페이지로 돌아감</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>삭제 버튼 누르면 사용자페이지의 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>join_delete</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>페이지로 이동</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>수정 버튼 누르면 사용자페이지의 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>join_update</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>페이지로 이동</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -529,14 +1072,26 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>+ </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>페이징기능</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -855,6 +1410,243 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>제목</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>머릿말로 게시물 검색 가능</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>글 등록 버튼을 누르면 공지게시물을 추가할 수 있음</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>(notice_write &gt; notice_writeAction)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>체크 박스 선택 후 글 삭제 또는 글 복구 버튼을 누르면 게시물의 상태가 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>삭제</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>' </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>또는 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>게시</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>로 변경됨</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>.(admin_bbsDelAction)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>머릿말이 일반공지이거나 삭제된 모임공지는 아무런 버튼이 뜨지 않음</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>머릿말이 모임공지이면서 게시중인 게시물에 대해서는 결과와 후기에 대한 버튼이 뜸</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>만약 해당 게시물에 대한 결과나 후기 게시물이 존재하면 결과</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>후기 수정 버튼이 뜨고</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>존재하지 않는다면 결과</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>후기 등록 버튼이 뜸</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>결과</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>후기 등록 버튼 누르면 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>result_write / review_write </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>페이지로 이동</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>결과</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>후기 수정 버튼 누르면 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>result_update / review_update </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>페이지로 이동</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>각 게시물의 제목 누르면 게시물을 상세히 볼 수 있음 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>(notice_view)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> -</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>페이징</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
         </a:p>
         <a:p>
@@ -866,36 +1658,132 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>3. notice_write, notice_writeAction</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>4 notice_update, notice_updateAction</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>5. admin_bbsDelAction</a:t>
-          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>게시 중인 게시물은 하단에 글 목록 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>수정 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>삭제 버튼이 뜸</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>목록 버튼 누르면 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>admin_bbsNotice</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>페이지로 이동</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>수정 버튼 누르면 게시물 수정 페이지로 이동 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>(notice_update)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>삭제 버튼 누르면 게시물이 삭제됨 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>(bbsAvailable = 0)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>삭제 된 게시물은 하단에 글 목록 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>글 복구 버튼이 뜸</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>3 notice_update, notice_updateAction</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>수정하기 버튼 누르면 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>notice_View</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>페이지로 이동</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -919,8 +1807,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -930,7 +1818,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="5067300"/>
-          <a:ext cx="3835400" cy="3962400"/>
+          <a:ext cx="3835400" cy="4318000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -977,6 +1865,192 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>제목 으로 게시물 검색이 가능</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>글 등록 버튼 누르면 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>result_select </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>페이지로 이동</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>결과 게시물은 공지게시물 중 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>모임공지</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>이고</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>, bbsComplete = 1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>이면서 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>bbsAvailable=1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>인 애들 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>+ bbs_reuslt</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>테이블에 존재하지 않는 애들</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>(bbsID)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t> 대상으로 작성 가능</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>(result_select &gt; result_write &gt; result_writeAction)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>제목 클릭하면 내용 상세보기 가능</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>체크박스 선택 후 글 삭제 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>글 복구 하면 해당 게시물</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>들</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>의 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>bbsAvailable = 0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>또는 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>로 업데이트됨</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>페이징</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
         </a:p>
         <a:p>
@@ -988,6 +2062,109 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>삭제된 게시물은 하단에 글 목록 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>글 복구 버튼이 뜸</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>게시된 게시물은 하단에 글 목록 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>글 수정 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>글 삭제 버튼이 뜸</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>글 수정 버튼을 누르면 수정 페이지로 이동 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>(reuslt_update)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>글 삭제 버튼을 누르면 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>bbsAvailable = 0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>으로 업데이트</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>목록 버튼 누르면 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>admin_bbsResult</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>로 이동</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
         </a:p>
         <a:p>
@@ -999,6 +2176,54 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>글 등록 완료하면 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>admin_bbsResult</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>페이지로 이동</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>글 등록 완료하면 유저들의 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>1, 2, 3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>등 횟수 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>&amp; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>랭킹 업데이트</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
         </a:p>
         <a:p>
@@ -1010,110 +2235,51 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="직사각형 22"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4006850" y="5080000"/>
-          <a:ext cx="3835400" cy="3962400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
-            <a:t>&lt;</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
-            <a:t>후기게시물 관리 페이지</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>1. admin_bbsReview</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>2.review_view</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>3. review_select &gt; review_write &gt; review_writeAction</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>4 review_update &gt; review_updateAction</a:t>
-          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>글 수정 완료하면 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>result_view</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>페이지로 이동</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>글 수정 완료하면 유저들의 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>1, 2, 3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>등 횟수 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>&amp; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>랭킹 업데이트</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -1191,6 +2357,110 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>제목으로 게시물 검색 가능</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>글 등록 버튼 누르면 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>faq_write </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>페이지로 이동</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>체크박스 선택 후 글 삭제 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>복구 누르면 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>bbsAvailable = 0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>또는 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>로 업데이트</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>제목 누르면 내용 상세보기 가능</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>페이징</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
         </a:p>
         <a:p>
@@ -1202,6 +2472,54 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>삭제된 게시물은 하단에 글 목록 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>글 복구 버튼이 뜸</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>게시된 게시물은 하단에 글 목록 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>글 수정 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>글 삭제 버튼이 뜸</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
         </a:p>
         <a:p>
@@ -1213,6 +2531,26 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>작성 후 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>admin_bbsFaq</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>페이지로 이동</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
         </a:p>
         <a:p>
@@ -1221,6 +2559,458 @@
             <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
             <a:t>4. faq_update &gt; faq_updateAction</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>수정 후 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>faq_view</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>페이지로 이동</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="직사각형 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3981450" y="5099050"/>
+          <a:ext cx="3835400" cy="4241800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
+            <a:t>후기게시물 관리 페이지</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>1. admin_bbsReview</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>제목 으로 게시물 검색이 가능</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>글 등록 버튼 누르면 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>review_select </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>페이지로 이동</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>후기 게시물은 공지게시물 중 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>모임공지</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>이고</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>, bbsComplete = 1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>이면서 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>bbsAvailable=1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>인 애들 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>+ bbs_review</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>테이블에 존재하지 않는 애들</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>(bbsID)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t> 대상으로 작성 가능</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>(review_select &gt; review_write &gt; review_writeAction)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>제목 클릭하면 내용 상세보기 가능</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>체크박스 선택 후 글 삭제 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>글 복구 하면 해당 게시물</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>들</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>의 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>bbsAvailable = 0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>또는 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>로 업데이트됨</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>페이징</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>2.result_view</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>삭제된 게시물은 하단에 글 목록 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>글 복구 버튼이 뜸</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>게시된 게시물은 하단에 글 목록 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>글 수정 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>글 삭제 버튼이 뜸</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>글 수정 버튼을 누르면 수정 페이지로 이동 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>(review_update)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>글 삭제 버튼을 누르면 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>bbsAvailable = 0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>으로 업데이트</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>목록 버튼 누르면 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>admin_bbsReview</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>로 이동</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>3. review_select,  review_write &gt; review_writeAction</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>글 등록 완료하면 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>admin_bbsResult</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>페이지로 이동</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>4 review_update &gt; review_updateAction</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>글 수정 완료하면 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>result_view</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>페이지로 이동</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -1522,8 +3312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1615,30 +3405,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/admin_test.xlsx
+++ b/admin_test.xlsx
@@ -353,75 +353,123 @@
             <a:t>'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>진행중</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>으로 모임현황이 변경됨</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>단</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>, </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>모임 날짜가 지난 경우 항상 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>완료</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>상태로 뜸</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>.</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>페이징</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="FF0000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -631,26 +679,17 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>페이징</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>페이징 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t>x</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -1041,66 +1080,102 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>탈퇴</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>/</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>활동 시 랭킹 업데이트 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>(admin_userDelAction</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>페이지에서 수정</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>) </a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>+ </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>페이징기능</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="FF0000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>2. admin_userDelAction</a:t>
           </a:r>
         </a:p>
@@ -1352,8 +1427,8 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1363,7 +1438,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7969250" y="222250"/>
-          <a:ext cx="4375150" cy="3962400"/>
+          <a:ext cx="4375150" cy="4102100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1613,35 +1688,43 @@
             <a:t>- </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>각 게시물의 제목 누르면 게시물을 상세히 볼 수 있음 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>(notice_view)</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t> -</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>페이징</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="FF0000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -1951,124 +2034,220 @@
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
-            <a:t> 대상으로 작성 가능</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t> 대상으로 작성 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>가능</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>(result_select &gt; result_write &gt; result_writeAction)</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>제목 클릭하면 내용 상세보기 가능</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
-            <a:t>체크박스 선택 후 글 삭제 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>/ </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
-            <a:t>글 복구 하면 해당 게시물</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
-            <a:t>들</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
-            <a:t>의 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>bbsAvailable = 0</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
-            <a:t>또는 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
-            <a:t>로 업데이트됨</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>페이징</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="FF0000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>체크박스 선택 후 글 삭제 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>글 복구 하면 해당 게시물</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>들</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>의 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>bbsAvailable = 0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>또는 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>로 업데이트됨</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>페이징</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>2.result_view</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
-            <a:t>삭제된 게시물은 하단에 글 목록 </a:t>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>삭제된 게시물은 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>하단에 글 목록 </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
@@ -2419,166 +2598,302 @@
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
-            <a:t>로 업데이트</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
-            <a:t>제목 누르면 내용 상세보기 가능</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>페이징</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+            <a:t>로 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" i="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>업데이트</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" i="0" u="none" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="FF0000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" i="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" i="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>제목 누르면 내용 상세보기 가능</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" i="0" u="none" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" i="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" i="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>페이징</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" i="0" u="none" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" i="0" u="none" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" i="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>2.faq_view</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" i="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" i="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>삭제된 게시물은 하단에 글 목록 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" i="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>| </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" i="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>글 복구 버튼이 뜸</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" i="0" u="none" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" i="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" i="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>게시된 게시물은 하단에 글 목록 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" i="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>| </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" i="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>글 수정 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" i="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>| </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" i="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>글 삭제 버튼이 뜸</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" i="0" u="none" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" i="0" u="none" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" i="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>3. faq_write &gt; faq_writeAction</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" i="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" i="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>작성 후 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" i="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>admin_bbsFaq</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" i="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>페이지로 이동</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" i="0" u="none" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" i="0" u="none" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" i="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>4. faq_update &gt; faq_updateAction</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" i="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" i="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>수정 후 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" i="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>faq_view</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" i="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>페이지로 이동</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" i="0" u="none" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2804,58 +3119,86 @@
             <a:t>1</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>로 업데이트됨</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>,</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>-</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>페이징</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="FF0000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>2.result_view</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
-            <a:t>삭제된 게시물은 하단에 글 목록 </a:t>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>삭제된 게시물은 하단에 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>글 목록 </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
@@ -3312,7 +3655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
